--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2830,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2923,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3049,10 +3061,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3096,28 +3108,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3142,28 +3154,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3367,10 +3379,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3414,28 +3426,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3460,28 +3472,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4465,10 +4477,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4512,28 +4524,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4558,28 +4570,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4725,10 +4737,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4772,28 +4784,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4818,28 +4830,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4927,10 +4939,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4974,28 +4986,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5020,28 +5032,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5158,10 +5170,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5205,28 +5217,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5251,28 +5263,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5418,10 +5430,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5465,28 +5477,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5511,28 +5523,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5620,10 +5632,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5667,28 +5679,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5713,28 +5725,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5863,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5898,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5956,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6140,10 +6152,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6187,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6233,28 +6245,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6325,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6372,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6418,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6498,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6533,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6591,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
